--- a/greenplum/datawarehouse/QA/qa-all-db-checks/truven/dw_staging/outputs/truven-raw-counts.xlsx
+++ b/greenplum/datawarehouse/QA/qa-all-db-checks/truven/dw_staging/outputs/truven-raw-counts.xlsx
@@ -8,17 +8,21 @@
   <sheets>
     <sheet name="msclmids" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="enrolid || msclmid combos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="dx - enrolids in a" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="dx - all enrolids" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="proc" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="rx" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t xml:space="preserve">Count of distinct claim IDs (msclmid) in Truven schema on TACC server</t>
   </si>
   <si>
-    <t xml:space="preserve">Run time: 2023-01-09 16:29:18</t>
+    <t xml:space="preserve">Run time: 2023-01-12 12:42:57</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -36,138 +40,6 @@
     <t xml:space="preserve">truv_mdcro</t>
   </si>
   <si>
-    <t xml:space="preserve">16054327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141177517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8907513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53671929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15821442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141446271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8110827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45848871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11613471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116117967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7118655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39462168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12754200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123539857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6658248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38422882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7012925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32975148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4089671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18402426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7225729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36474303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3849138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18332458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6715083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37535115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2959578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16275643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7498614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50220108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1993135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12651429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6912682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43887419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1966294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13362344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6885963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46324960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3091594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17636955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6512965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43595978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3265064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16446722</t>
-  </si>
-  <si>
     <t xml:space="preserve">Count of distinct enrolid-msclmid combinations in Truven schema on TACC server</t>
   </si>
   <si>
@@ -183,136 +55,442 @@
     <t xml:space="preserve">truv_concat_mdcro</t>
   </si>
   <si>
-    <t xml:space="preserve">22342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">465722230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10836749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106577282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21970613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">475937095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10014407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99450731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16811236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374452089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8711802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88058517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17913281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399893091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7964806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79544566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11502326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254905460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5184314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49736787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11598289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264225211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4812832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48879464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10577391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245443738</t>
+    <t xml:space="preserve">Count of distinct enrolid-msclmid combinations in Truven schema on TACC server (rows with dx codes only, enrolid has to exist in 'a' tables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_dx_ccaes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_dx_ccaeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_dx_mdcrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_dx_mdcro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22293194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464668355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10828808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106313665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21928280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474691535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10008951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99180061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16771482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373414336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8706041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87911138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17869926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398790716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7959890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79395266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11460978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253775145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5181241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49658925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11550790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262719618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4809308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48764924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10534172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243748748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3445324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34025306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10943346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250019649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2341261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26049177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10067114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235525644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2271026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25743769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9434902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214809210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31501249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9074206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225709251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3568925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33997460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of distinct enrolid-msclmid combinations in Truven schema on TACC server (rows with dx codes only, enrolid DOES NOT have to exist in 'a' tables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22342428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464918374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10836651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106388169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21969947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474856537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10014362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99229449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16810938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8711786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87971413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17911818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398987590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7964782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79453231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11500592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253980315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5184304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49680954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11596396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262995594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4812826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48794435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10576642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244020676</t>
   </si>
   <si>
     <t xml:space="preserve">3447394</t>
   </si>
   <si>
-    <t xml:space="preserve">34120574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10976706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251365411</t>
+    <t xml:space="preserve">34051690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10976665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250109632</t>
   </si>
   <si>
     <t xml:space="preserve">2342184</t>
   </si>
   <si>
-    <t xml:space="preserve">26105481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10100319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236770305</t>
+    <t xml:space="preserve">26060687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10100175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235614972</t>
   </si>
   <si>
     <t xml:space="preserve">2272431</t>
   </si>
   <si>
-    <t xml:space="preserve">25794549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9462462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216097356</t>
+    <t xml:space="preserve">25752925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9462360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214867927</t>
   </si>
   <si>
     <t xml:space="preserve">3361488</t>
   </si>
   <si>
-    <t xml:space="preserve">31580107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9098129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226696842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3571308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34270777</t>
+    <t xml:space="preserve">31508576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9098102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225833663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3571306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34009715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of distinct enrolid-msclmid combinations in Truven schema on TACC server (rows with proc codes only, counting from 's' and 'f' tables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run time: 2023-01-12 12:42:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_proc_ccae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_proc_mdcr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13856811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5155806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12738842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4873037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10505683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4370011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10647806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3907119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7479786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2835038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8775166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3272796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8007242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2357313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8189687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1607341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7615794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1592479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7192444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2471845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7097762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2310381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note that ccaes/ccaef tables were combined, then count distinct (otherwise there are too many overlaps)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of distinct enrolid || ndcnum || svcdate from 'd' tables, where enrolid is not null in Truven schema on TACC server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_rx_ccaed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truv_rx_mdcrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362877213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98371093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359147330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90305643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282746799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81589584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301591935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70641795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229565245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56681262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234825592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55716457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214838127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38553784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209605346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29537128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189840924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25335171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175061759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33544584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169771182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33684593</t>
   </si>
 </sst>
 </file>
@@ -643,14 +821,6 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <cols>
-    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="9.15" hidden="0" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -683,187 +853,187 @@
       <c r="A5" t="n">
         <v>2011</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="B5" t="n">
+        <v>16054327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>141177517</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8907513</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53671929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2012</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="B6" t="n">
+        <v>15821442</v>
+      </c>
+      <c r="C6" t="n">
+        <v>141446271</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8110827</v>
+      </c>
+      <c r="E6" t="n">
+        <v>45848871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2013</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+      <c r="B7" t="n">
+        <v>11613471</v>
+      </c>
+      <c r="C7" t="n">
+        <v>116117967</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7118655</v>
+      </c>
+      <c r="E7" t="n">
+        <v>39462168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2014</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+      <c r="B8" t="n">
+        <v>12754200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>123539857</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6658248</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38422882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
+      <c r="B9" t="n">
+        <v>7012925</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32975148</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4089671</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18402426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+      <c r="B10" t="n">
+        <v>7225729</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36474303</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3849138</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18332458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="B11" t="n">
+        <v>6715083</v>
+      </c>
+      <c r="C11" t="n">
+        <v>37535115</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2959578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16275643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2018</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
+      <c r="B12" t="n">
+        <v>7498614</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50220108</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1993135</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12651429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2019</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
+      <c r="B13" t="n">
+        <v>6912682</v>
+      </c>
+      <c r="C13" t="n">
+        <v>43887419</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1966294</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13362344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2020</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
+      <c r="B14" t="n">
+        <v>6885963</v>
+      </c>
+      <c r="C14" t="n">
+        <v>46324960</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3091594</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17636955</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2021</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
+      <c r="B15" t="n">
+        <v>6512965</v>
+      </c>
+      <c r="C15" t="n">
+        <v>43595978</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3265064</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16446722</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1052,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -895,203 +1065,976 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2011</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
+      <c r="B5" t="n">
+        <v>22342712</v>
+      </c>
+      <c r="C5" t="n">
+        <v>465722230</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10836749</v>
+      </c>
+      <c r="E5" t="n">
+        <v>106577282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2012</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
+      <c r="B6" t="n">
+        <v>21970613</v>
+      </c>
+      <c r="C6" t="n">
+        <v>475937095</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10014407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99450731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2013</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
+      <c r="B7" t="n">
+        <v>16811236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>374452089</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8711802</v>
+      </c>
+      <c r="E7" t="n">
+        <v>88058517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2014</v>
       </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
+      <c r="B8" t="n">
+        <v>17913281</v>
+      </c>
+      <c r="C8" t="n">
+        <v>399893091</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7964806</v>
+      </c>
+      <c r="E8" t="n">
+        <v>79544566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2015</v>
       </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
+      <c r="B9" t="n">
+        <v>11502326</v>
+      </c>
+      <c r="C9" t="n">
+        <v>254905460</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5184314</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49736787</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2016</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
+      <c r="B10" t="n">
+        <v>11598289</v>
+      </c>
+      <c r="C10" t="n">
+        <v>264225211</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4812832</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48879464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
+      <c r="B11" t="n">
+        <v>10577391</v>
+      </c>
+      <c r="C11" t="n">
+        <v>245443738</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3447394</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34120574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2018</v>
       </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
+      <c r="B12" t="n">
+        <v>10976706</v>
+      </c>
+      <c r="C12" t="n">
+        <v>251365411</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2342184</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26105481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2019</v>
       </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
+      <c r="B13" t="n">
+        <v>10100319</v>
+      </c>
+      <c r="C13" t="n">
+        <v>236770305</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2272431</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25794549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2020</v>
       </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>95</v>
+      <c r="B14" t="n">
+        <v>9462462</v>
+      </c>
+      <c r="C14" t="n">
+        <v>216097356</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3361488</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31580107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2021</v>
       </c>
+      <c r="B15" t="n">
+        <v>9098129</v>
+      </c>
+      <c r="C15" t="n">
+        <v>226696842</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3571308</v>
+      </c>
+      <c r="E15" t="n">
+        <v>34270777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2021</v>
+      </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
         <v>96</v>
       </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
